--- a/Pagos_Masivos/Configuracion/Config.xlsx
+++ b/Pagos_Masivos/Configuracion/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-83685\Documents\Pagos_Masivos\Configuracion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Pagos_Masivos\Configuracion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D357E484-C6BD-49E9-B9DE-8E3F560AD4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D159339-6275-4A6F-82DA-5B2C33A414B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-39810" yWindow="1695" windowWidth="19440" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -181,6 +181,57 @@
   </si>
   <si>
     <t>RevisionMontos.txt</t>
+  </si>
+  <si>
+    <t>CredencialesSAP</t>
+  </si>
+  <si>
+    <t>Pagos_Masivos_Cedenciales_SAP</t>
+  </si>
+  <si>
+    <t>PathSap</t>
+  </si>
+  <si>
+    <t>LegnuejeSap</t>
+  </si>
+  <si>
+    <t>ConexionSap</t>
+  </si>
+  <si>
+    <t>MadatoSap</t>
+  </si>
+  <si>
+    <t>sheetParametros</t>
+  </si>
+  <si>
+    <t>Parametros</t>
+  </si>
+  <si>
+    <t>transactionZR2RP064</t>
+  </si>
+  <si>
+    <t>ZR2RP064</t>
+  </si>
+  <si>
+    <t>CredentialsSUNAT</t>
+  </si>
+  <si>
+    <t>Sunat_Credentials</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\SAP\FrontEnd\SAPgui\saplogon.exe</t>
+  </si>
+  <si>
+    <t>5.02 - SAP QA2 - S/4 - HEC</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>urlSunat</t>
+  </si>
+  <si>
+    <t>RUCSunat</t>
   </si>
 </sst>
 </file>
@@ -191,7 +242,7 @@
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="###,000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +407,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -843,7 +887,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -888,40 +932,41 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="27" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="27" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -935,16 +980,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="56"/>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="57">
     <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -981,6 +1026,7 @@
     <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="56" xr:uid="{44F5330A-4C6E-4AB9-B8ED-184226AB360E}"/>
     <cellStyle name="Normal 89" xfId="55" xr:uid="{A6A27B0D-B4AB-48E2-9773-96E47E096DCE}"/>
     <cellStyle name="Notas" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
@@ -1342,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A14759A-8DE4-47B2-882E-BB53CFE967F1}">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1382,255 +1428,257 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="18.75">
-      <c r="A6" s="5" t="s">
+    <row r="5" spans="1:3" s="9" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="18.75">
+      <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:3" ht="18.75">
+      <c r="A10" s="5" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18.75">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:3" ht="18.75">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:3">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="18.75">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="10" customFormat="1">
-      <c r="A16" s="11" t="s">
+    <row r="17" spans="1:2" s="9" customFormat="1">
+      <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="10" customFormat="1">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:2" s="9" customFormat="1">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="10" customFormat="1">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="18" customHeight="1">
-      <c r="A21" s="5" t="s">
+    <row r="20" spans="1:2" s="9" customFormat="1">
+      <c r="A20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="18" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:2" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:2" s="9" customFormat="1" ht="18" customHeight="1">
+      <c r="A25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="9" customFormat="1"/>
+    <row r="28" spans="1:2" ht="18.75">
+      <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="10"/>
-    </row>
-    <row r="28" spans="1:2" s="10" customFormat="1"/>
-    <row r="29" spans="1:2" s="10" customFormat="1"/>
-    <row r="30" spans="1:2" s="10" customFormat="1"/>
-    <row r="31" spans="1:2" ht="18.75">
-      <c r="A31" s="5" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" s="9" customFormat="1"/>
+    <row r="31" spans="1:2" s="9" customFormat="1"/>
+    <row r="32" spans="1:2" s="9" customFormat="1"/>
+    <row r="33" spans="1:2" ht="18.75">
+      <c r="A33" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="10" customFormat="1" ht="18.75">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="34" spans="1:2" ht="18.75">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="9" customFormat="1">
+      <c r="A35" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="9" customFormat="1"/>
+    <row r="37" spans="1:2" ht="18.75">
+      <c r="A37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="11" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="10" customFormat="1">
-      <c r="A36" s="11"/>
-    </row>
-    <row r="37" spans="1:2" s="10" customFormat="1">
-      <c r="A37" s="11"/>
-    </row>
-    <row r="38" spans="1:2" s="10" customFormat="1">
-      <c r="A38" s="11"/>
-    </row>
-    <row r="39" spans="1:2" s="10" customFormat="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-    </row>
-    <row r="40" spans="1:2" s="10" customFormat="1">
-      <c r="A40" s="11"/>
-    </row>
-    <row r="42" spans="1:2" ht="18.75">
-      <c r="A42" s="5" t="s">
+    <row r="39" spans="1:2" s="9" customFormat="1">
+      <c r="A39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="9" customFormat="1">
+      <c r="A40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="9" customFormat="1">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" spans="1:2" s="9" customFormat="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2" s="9" customFormat="1">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="45" spans="1:2" ht="18.75">
+      <c r="A45" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75">
-      <c r="A44" s="5" t="s">
+    <row r="47" spans="1:2" ht="18.75">
+      <c r="A47" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="18.75">
-      <c r="A48" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="18.75">
-      <c r="A49" s="7"/>
     </row>
     <row r="51" spans="1:3" ht="18.75">
       <c r="A51" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="9" customFormat="1">
+      <c r="A53" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75">
+      <c r="A55" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75">
-      <c r="A52" s="9"/>
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="10"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75">
-      <c r="A54" s="9"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="10"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75">
-      <c r="A55" s="9"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="10"/>
-    </row>
     <row r="56" spans="1:3" ht="15.75">
-      <c r="A56" s="9"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="15.75">
-      <c r="A57" s="9"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" ht="15.75">
-      <c r="A58" s="9"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="10"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75">
-      <c r="A59" s="9"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="10"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75">
-      <c r="A60" s="9"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="10"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75">
-      <c r="A61" s="9"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="10"/>
-    </row>
-    <row r="62" spans="1:3" ht="15.75">
-      <c r="A62" s="9"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="10"/>
-    </row>
-    <row r="63" spans="1:3" ht="15.75">
-      <c r="A63" s="9"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="10"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75">
-      <c r="A64" s="9"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="10"/>
-    </row>
-    <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" s="9"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="10"/>
-    </row>
-    <row r="67" spans="1:3" ht="18.75">
-      <c r="A67" s="5" t="s">
+      <c r="A58" s="8"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" ht="18.75">
+      <c r="A59" s="5" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
